--- a/data/pca/factorExposure/factorExposure_2010-03-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-03-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +714,33 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01848738281800553</v>
+        <v>0.0170891813676356</v>
       </c>
       <c r="C2">
-        <v>0.004395323100182075</v>
+        <v>-0.000955563183805412</v>
       </c>
       <c r="D2">
-        <v>0.01197607159964624</v>
+        <v>-0.00732575583847884</v>
       </c>
       <c r="E2">
-        <v>-0.02164492345337031</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.0002796735464346147</v>
+      </c>
+      <c r="F2">
+        <v>0.008851779430317088</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +754,33 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1279314643803169</v>
+        <v>0.0934573118616967</v>
       </c>
       <c r="C4">
-        <v>0.0462745373316696</v>
+        <v>-0.01571835659305322</v>
       </c>
       <c r="D4">
-        <v>0.04765008414502402</v>
+        <v>-0.08412652573391291</v>
       </c>
       <c r="E4">
-        <v>0.001447918227336441</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02998907776283964</v>
+      </c>
+      <c r="F4">
+        <v>-0.02919544733874415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +794,233 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1146748377490591</v>
+        <v>0.1554694930799372</v>
       </c>
       <c r="C6">
-        <v>-0.02124378344351274</v>
+        <v>-0.0246339231597025</v>
       </c>
       <c r="D6">
-        <v>0.005190473689954862</v>
+        <v>0.02236912293251404</v>
       </c>
       <c r="E6">
-        <v>-0.01802751146935638</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.01101945244622432</v>
+      </c>
+      <c r="F6">
+        <v>-0.0494789868233053</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07831003727715902</v>
+        <v>0.05969025635315518</v>
       </c>
       <c r="C7">
-        <v>0.02620215151105487</v>
+        <v>0.001017347876789836</v>
       </c>
       <c r="D7">
-        <v>0.0627047426515535</v>
+        <v>-0.05231549903069839</v>
       </c>
       <c r="E7">
-        <v>-0.04117638130663605</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01337950566773949</v>
+      </c>
+      <c r="F7">
+        <v>-0.04445722756070807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05453398698760979</v>
+        <v>0.05843399429367278</v>
       </c>
       <c r="C8">
-        <v>0.009761539207161333</v>
+        <v>0.01330678419478532</v>
       </c>
       <c r="D8">
-        <v>0.02608473061921596</v>
+        <v>-0.03069910995640484</v>
       </c>
       <c r="E8">
-        <v>-0.02050112300984289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.01575826534221958</v>
+      </c>
+      <c r="F8">
+        <v>0.02875222454416369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.09734103712255723</v>
+        <v>0.07152146140857066</v>
       </c>
       <c r="C9">
-        <v>0.04783917681912178</v>
+        <v>-0.01165079945441002</v>
       </c>
       <c r="D9">
-        <v>0.02313992468166532</v>
+        <v>-0.0846051444727416</v>
       </c>
       <c r="E9">
-        <v>-0.01286436812302118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.02418677811115496</v>
+      </c>
+      <c r="F9">
+        <v>-0.04890868143037173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.07244970118913562</v>
+        <v>0.09491778582774514</v>
       </c>
       <c r="C10">
-        <v>-0.1630838853465769</v>
+        <v>-0.01826850510452575</v>
       </c>
       <c r="D10">
-        <v>-0.09606529318087687</v>
+        <v>0.1700744352010533</v>
       </c>
       <c r="E10">
-        <v>-0.02083432126653599</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.03840274420260832</v>
+      </c>
+      <c r="F10">
+        <v>0.05629969901538115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09655138602453524</v>
+        <v>0.08764916188699833</v>
       </c>
       <c r="C11">
-        <v>0.04346495218364741</v>
+        <v>-0.01142342891785309</v>
       </c>
       <c r="D11">
-        <v>0.06614731198787792</v>
+        <v>-0.1167533937191792</v>
       </c>
       <c r="E11">
-        <v>-0.04514082115428115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.04740896183634409</v>
+      </c>
+      <c r="F11">
+        <v>-0.01961564900537155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09987755275108036</v>
+        <v>0.09220315808352769</v>
       </c>
       <c r="C12">
-        <v>0.0494704379781977</v>
+        <v>-0.008877209516342988</v>
       </c>
       <c r="D12">
-        <v>0.07525863298979024</v>
+        <v>-0.1279235599481147</v>
       </c>
       <c r="E12">
-        <v>-0.04118141670691337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.04790047226715039</v>
+      </c>
+      <c r="F12">
+        <v>-0.01857525070966689</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04432703071047352</v>
+        <v>0.04399312227586043</v>
       </c>
       <c r="C13">
-        <v>0.02884915273802803</v>
+        <v>-0.004021869844939596</v>
       </c>
       <c r="D13">
-        <v>-0.01402702107168396</v>
+        <v>-0.04863832636352085</v>
       </c>
       <c r="E13">
-        <v>0.0005711484710264414</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.01241706618774302</v>
+      </c>
+      <c r="F13">
+        <v>-0.009017353145427549</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02695712061026414</v>
+        <v>0.0225958833974135</v>
       </c>
       <c r="C14">
-        <v>0.003791732445298047</v>
+        <v>-0.01414159930266563</v>
       </c>
       <c r="D14">
-        <v>0.006643351927159795</v>
+        <v>-0.03219339191551701</v>
       </c>
       <c r="E14">
-        <v>-0.004556447157798299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.01754808880245023</v>
+      </c>
+      <c r="F14">
+        <v>-0.0173378595758808</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03007841011789391</v>
+        <v>0.03099560479581273</v>
       </c>
       <c r="C15">
-        <v>0.0251626731956454</v>
+        <v>-0.005226988586457972</v>
       </c>
       <c r="D15">
-        <v>0.005514649535632283</v>
+        <v>-0.04496353771003238</v>
       </c>
       <c r="E15">
-        <v>-0.01903361201321497</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.007386848881800959</v>
+      </c>
+      <c r="F15">
+        <v>-0.02763638508024692</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.1005923561885887</v>
+        <v>0.07311952460531612</v>
       </c>
       <c r="C16">
-        <v>0.03553799590471352</v>
+        <v>-0.002871941555571478</v>
       </c>
       <c r="D16">
-        <v>0.07424600702736969</v>
+        <v>-0.1238390639586752</v>
       </c>
       <c r="E16">
-        <v>-0.04840923796214749</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.06318709239493069</v>
+      </c>
+      <c r="F16">
+        <v>-0.02466297590518724</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,27 +1034,33 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02560363455858284</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003992988770641141</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02206356495255909</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>-0.004560357606586548</v>
+      </c>
+      <c r="F18">
+        <v>0.01608356247942401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1074,153 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.05423960363374714</v>
+        <v>0.06075615476743677</v>
       </c>
       <c r="C20">
-        <v>0.01279997626399277</v>
+        <v>-0.0004146054747938973</v>
       </c>
       <c r="D20">
-        <v>0.04827096814676234</v>
+        <v>-0.07660288404821872</v>
       </c>
       <c r="E20">
-        <v>0.004739335298579728</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.0558298805821364</v>
+      </c>
+      <c r="F20">
+        <v>-0.02391340725959568</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.0204118338230616</v>
+        <v>0.03874204983765318</v>
       </c>
       <c r="C21">
-        <v>-0.008305085316877433</v>
+        <v>-0.006667236952411703</v>
       </c>
       <c r="D21">
-        <v>-0.001417393735892321</v>
+        <v>-0.03531024097697473</v>
       </c>
       <c r="E21">
-        <v>0.03131481883332757</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.007794029371470724</v>
+      </c>
+      <c r="F21">
+        <v>0.02102152177135658</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.03021566447610352</v>
+        <v>0.04398102883992672</v>
       </c>
       <c r="C22">
-        <v>-0.024327331020118</v>
+        <v>-0.001230413120356269</v>
       </c>
       <c r="D22">
-        <v>-0.02765642618201172</v>
+        <v>-0.001573989985385544</v>
       </c>
       <c r="E22">
-        <v>-0.04629116737673318</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.02802956738224557</v>
+      </c>
+      <c r="F22">
+        <v>0.01038426734181391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.0303150312100938</v>
+        <v>0.04401467748299679</v>
       </c>
       <c r="C23">
-        <v>-0.02431609813425549</v>
+        <v>-0.001251270085184047</v>
       </c>
       <c r="D23">
-        <v>-0.02715731338909936</v>
+        <v>-0.001665763499099436</v>
       </c>
       <c r="E23">
-        <v>-0.04814215036178903</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.02833881441543014</v>
+      </c>
+      <c r="F23">
+        <v>0.009843499275988439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.1046456863627798</v>
+        <v>0.07930905431632498</v>
       </c>
       <c r="C24">
-        <v>0.04004813431425228</v>
+        <v>-0.002990214216218474</v>
       </c>
       <c r="D24">
-        <v>0.07446766115998292</v>
+        <v>-0.1200235805214491</v>
       </c>
       <c r="E24">
-        <v>-0.03880028312117095</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.05051716641354394</v>
+      </c>
+      <c r="F24">
+        <v>-0.0221851908849872</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.1058285177989085</v>
+        <v>0.08487343857795211</v>
       </c>
       <c r="C25">
-        <v>0.03240603486757115</v>
+        <v>-0.005238614051874704</v>
       </c>
       <c r="D25">
-        <v>0.06530625138785905</v>
+        <v>-0.1088473505467607</v>
       </c>
       <c r="E25">
-        <v>-0.04709740492725365</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.03323359704029522</v>
+      </c>
+      <c r="F25">
+        <v>-0.0260197178446891</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04221928802971479</v>
+        <v>0.05584850477698521</v>
       </c>
       <c r="C26">
-        <v>-0.01870801401320013</v>
+        <v>-0.01440357306196539</v>
       </c>
       <c r="D26">
-        <v>0.01618820856158587</v>
+        <v>-0.04221609544011327</v>
       </c>
       <c r="E26">
-        <v>-0.008591380392498453</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.02589039218656555</v>
+      </c>
+      <c r="F26">
+        <v>0.009355659170652956</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1234,193 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.07035135630232182</v>
+        <v>0.1428771861305977</v>
       </c>
       <c r="C28">
-        <v>-0.2248053969862044</v>
+        <v>-0.01720292016292089</v>
       </c>
       <c r="D28">
-        <v>-0.2098382895487018</v>
+        <v>0.265447728846775</v>
       </c>
       <c r="E28">
-        <v>-0.05163695429170904</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.06873716114628484</v>
+      </c>
+      <c r="F28">
+        <v>-0.01957079169870051</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.028703502895242</v>
+        <v>0.02692560528806606</v>
       </c>
       <c r="C29">
-        <v>0.00949459142683489</v>
+        <v>-0.008365040123395374</v>
       </c>
       <c r="D29">
-        <v>-0.001048980506968352</v>
+        <v>-0.03134684695248269</v>
       </c>
       <c r="E29">
-        <v>-0.006291785381903559</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.01141307101947075</v>
+      </c>
+      <c r="F29">
+        <v>0.01252376857799529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.1165201856370538</v>
+        <v>0.0618122399340797</v>
       </c>
       <c r="C30">
-        <v>0.05144160407822614</v>
+        <v>-0.004482546516362279</v>
       </c>
       <c r="D30">
-        <v>0.03076935303422705</v>
+        <v>-0.08606608429331958</v>
       </c>
       <c r="E30">
-        <v>-0.01414728171789793</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.02381460068683521</v>
+      </c>
+      <c r="F30">
+        <v>-0.09266993489723518</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.03029337414980766</v>
+        <v>0.04904557989257134</v>
       </c>
       <c r="C31">
-        <v>0.007408164186976955</v>
+        <v>-0.01501334451354589</v>
       </c>
       <c r="D31">
-        <v>0.02658968602206191</v>
+        <v>-0.02634082655265748</v>
       </c>
       <c r="E31">
-        <v>-0.01643665551771914</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02733792270648132</v>
+      </c>
+      <c r="F31">
+        <v>0.005718549307951798</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.06217629449896264</v>
+        <v>0.04837348733684817</v>
       </c>
       <c r="C32">
-        <v>-0.003126262025102959</v>
+        <v>0.0007218922756991937</v>
       </c>
       <c r="D32">
-        <v>0.03298949543595326</v>
+        <v>-0.03383768237012684</v>
       </c>
       <c r="E32">
-        <v>9.758422870661702e-05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.0305709695634207</v>
+      </c>
+      <c r="F32">
+        <v>-0.006565514059098084</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.1085905163401098</v>
+        <v>0.08936061904164219</v>
       </c>
       <c r="C33">
-        <v>0.04693939138683575</v>
+        <v>-0.00845587126989588</v>
       </c>
       <c r="D33">
-        <v>0.03938015465231435</v>
+        <v>-0.09788638815175732</v>
       </c>
       <c r="E33">
-        <v>-0.07430591081681798</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.04590346184933432</v>
+      </c>
+      <c r="F33">
+        <v>-0.03788757766782113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.0921119789009847</v>
+        <v>0.06779556398825609</v>
       </c>
       <c r="C34">
-        <v>0.02466173671978482</v>
+        <v>-0.01173139964861013</v>
       </c>
       <c r="D34">
-        <v>0.05968669173406965</v>
+        <v>-0.1043713838890563</v>
       </c>
       <c r="E34">
-        <v>-0.04076360844901016</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.03519577501393843</v>
+      </c>
+      <c r="F34">
+        <v>-0.03568102842781521</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01465169165523134</v>
+        <v>0.02486772973660311</v>
       </c>
       <c r="C35">
-        <v>0.01193866106017582</v>
+        <v>-0.002345054072179791</v>
       </c>
       <c r="D35">
-        <v>-0.002522089986203306</v>
+        <v>-0.01236445665833582</v>
       </c>
       <c r="E35">
-        <v>-0.005971906821326954</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.01079443364202195</v>
+      </c>
+      <c r="F35">
+        <v>-0.006888031067001009</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02339120404514316</v>
+        <v>0.02519183544210971</v>
       </c>
       <c r="C36">
-        <v>0.01311140765678161</v>
+        <v>-0.00739178417984243</v>
       </c>
       <c r="D36">
-        <v>0.0001864086535790896</v>
+        <v>-0.03906365143852914</v>
       </c>
       <c r="E36">
-        <v>-0.002896790563948176</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.01686839905901743</v>
+      </c>
+      <c r="F36">
+        <v>-0.01319817653026084</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1434,93 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.006485392954368157</v>
+        <v>0.001522758491064303</v>
       </c>
       <c r="C38">
-        <v>0.001504662071622097</v>
+        <v>-0.0002298369852786603</v>
       </c>
       <c r="D38">
-        <v>0.001210039217756726</v>
+        <v>-0.0007486573380058942</v>
       </c>
       <c r="E38">
-        <v>-0.0003864609741754333</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.001164412187973528</v>
+      </c>
+      <c r="F38">
+        <v>0.001110853399961234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1642357433392866</v>
+        <v>0.107065930824536</v>
       </c>
       <c r="C39">
-        <v>0.0790769367681321</v>
+        <v>-0.01666691092253605</v>
       </c>
       <c r="D39">
-        <v>0.1062054095677989</v>
+        <v>-0.1536447898761668</v>
       </c>
       <c r="E39">
-        <v>-0.06996976958124043</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.06071829659350126</v>
+      </c>
+      <c r="F39">
+        <v>-0.02346496163377375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.009107291934655067</v>
+        <v>0.03728848287711001</v>
       </c>
       <c r="C40">
-        <v>-0.0001648144473719006</v>
+        <v>-0.007242389544559989</v>
       </c>
       <c r="D40">
-        <v>0.01110027086708567</v>
+        <v>-0.03311067459633549</v>
       </c>
       <c r="E40">
-        <v>0.01930387888744189</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.002505009537957039</v>
+      </c>
+      <c r="F40">
+        <v>0.01485941724998994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01684918470006885</v>
+        <v>0.02649301077354245</v>
       </c>
       <c r="C41">
-        <v>-0.02760069150486026</v>
+        <v>-0.006507498259451195</v>
       </c>
       <c r="D41">
-        <v>0.01054505514204803</v>
+        <v>-0.01105443693724781</v>
       </c>
       <c r="E41">
-        <v>-0.00647682832111428</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.01212853678985818</v>
+      </c>
+      <c r="F41">
+        <v>0.009255878980467336</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1534,53 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.02590730209020958</v>
+        <v>0.04016833029071384</v>
       </c>
       <c r="C43">
-        <v>-0.02439230569003833</v>
+        <v>-0.006619908426201585</v>
       </c>
       <c r="D43">
-        <v>0.02276279768591879</v>
+        <v>-0.02055688736462312</v>
       </c>
       <c r="E43">
-        <v>-0.02795972444851966</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.02389705546828069</v>
+      </c>
+      <c r="F43">
+        <v>0.01366343632684465</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1441219901631408</v>
+        <v>0.07604549742124279</v>
       </c>
       <c r="C44">
-        <v>0.06968082529849524</v>
+        <v>-0.02121817905433139</v>
       </c>
       <c r="D44">
-        <v>0.05384067891643306</v>
+        <v>-0.09762305905181971</v>
       </c>
       <c r="E44">
-        <v>-0.03216099071012232</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.07355096792867948</v>
+      </c>
+      <c r="F44">
+        <v>-0.170350759727485</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,197 +1594,233 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.01516251890657793</v>
+        <v>0.02340222736829885</v>
       </c>
       <c r="C46">
-        <v>-0.01921733525499899</v>
+        <v>-0.003597626020121336</v>
       </c>
       <c r="D46">
-        <v>0.004897580364041724</v>
+        <v>-0.01209432780698709</v>
       </c>
       <c r="E46">
-        <v>-0.03449836681513099</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.02236877682271611</v>
+      </c>
+      <c r="F46">
+        <v>-0.0002764757111945656</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.03916606646845638</v>
+        <v>0.05136160785510653</v>
       </c>
       <c r="C47">
-        <v>-0.0119020017391242</v>
+        <v>-0.003271456631371061</v>
       </c>
       <c r="D47">
-        <v>0.007556293466097196</v>
+        <v>-0.01299459441219782</v>
       </c>
       <c r="E47">
-        <v>-0.0004583144819050291</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.02257376604710305</v>
+      </c>
+      <c r="F47">
+        <v>0.0394946272279131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04005833412533977</v>
+        <v>0.04791075118868786</v>
       </c>
       <c r="C48">
-        <v>0.01517207978072426</v>
+        <v>-0.002633452485649045</v>
       </c>
       <c r="D48">
-        <v>-0.0002728358462565077</v>
+        <v>-0.05095369032321793</v>
       </c>
       <c r="E48">
-        <v>-0.007850096481369436</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.005051783025876356</v>
+      </c>
+      <c r="F48">
+        <v>-0.006416476532167091</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2228795971007705</v>
+        <v>0.2024430140481747</v>
       </c>
       <c r="C49">
-        <v>-0.04268751215294086</v>
+        <v>-0.01761821784532548</v>
       </c>
       <c r="D49">
-        <v>0.04596827011804792</v>
+        <v>0.01125023586421838</v>
       </c>
       <c r="E49">
-        <v>0.01082303872840462</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.03273720295342996</v>
+      </c>
+      <c r="F49">
+        <v>-0.0290519531776549</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03910242644346962</v>
+        <v>0.0486449845905322</v>
       </c>
       <c r="C50">
-        <v>0.00291451531318632</v>
+        <v>-0.01102934129032897</v>
       </c>
       <c r="D50">
-        <v>0.03456594064583086</v>
+        <v>-0.02599954935781837</v>
       </c>
       <c r="E50">
-        <v>-0.01097373049739728</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.0293051870694741</v>
+      </c>
+      <c r="F50">
+        <v>-0.006602548407572021</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.008628797587103356</v>
+        <v>0.002156258471828213</v>
       </c>
       <c r="C51">
-        <v>-0.01123164143615581</v>
+        <v>-0.0005476121715609703</v>
       </c>
       <c r="D51">
-        <v>-0.009925520423027134</v>
+        <v>0.002214744556653678</v>
       </c>
       <c r="E51">
-        <v>-0.01595740086323791</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-1.506602954153412e-05</v>
+      </c>
+      <c r="F51">
+        <v>-0.004054917021156868</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.133541078619884</v>
+        <v>0.1452363799584659</v>
       </c>
       <c r="C52">
-        <v>0.07264381660887273</v>
+        <v>-0.01392604516222687</v>
       </c>
       <c r="D52">
-        <v>0.03302497128600091</v>
+        <v>-0.04897573059114925</v>
       </c>
       <c r="E52">
-        <v>0.01144016846906667</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>0.02425814192762717</v>
+      </c>
+      <c r="F52">
+        <v>-0.03899783222179035</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1499771627913319</v>
+        <v>0.1737913817724161</v>
       </c>
       <c r="C53">
-        <v>0.003309177628050821</v>
+        <v>-0.01686939226408557</v>
       </c>
       <c r="D53">
-        <v>-0.003742427626524888</v>
+        <v>-0.008238561048337516</v>
       </c>
       <c r="E53">
-        <v>0.02082470371490014</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03514482881767857</v>
+      </c>
+      <c r="F53">
+        <v>-0.06970234567308495</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.04880206524247641</v>
+        <v>0.02237245141157867</v>
       </c>
       <c r="C54">
-        <v>0.00143753435496884</v>
+        <v>-0.01227863059122192</v>
       </c>
       <c r="D54">
-        <v>0.01452662152086347</v>
+        <v>-0.03282148501266641</v>
       </c>
       <c r="E54">
-        <v>-0.01079788517871397</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01480471457405551</v>
+      </c>
+      <c r="F54">
+        <v>0.002730675830350696</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08652725099665175</v>
+        <v>0.1144845047803384</v>
       </c>
       <c r="C55">
-        <v>0.02560549231550039</v>
+        <v>-0.01545217877047664</v>
       </c>
       <c r="D55">
-        <v>-0.006758489260452637</v>
+        <v>-0.01094153936174581</v>
       </c>
       <c r="E55">
-        <v>-0.03459576926772358</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.03129248738612515</v>
+      </c>
+      <c r="F55">
+        <v>-0.0454937587816971</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1593920370247217</v>
+        <v>0.1776204345753208</v>
       </c>
       <c r="C56">
-        <v>0.0214252902677682</v>
+        <v>-0.01432103152960032</v>
       </c>
       <c r="D56">
-        <v>0.03382778875395694</v>
+        <v>-0.005595458610387643</v>
       </c>
       <c r="E56">
-        <v>-0.01243912607077407</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.04094957274452667</v>
+      </c>
+      <c r="F56">
+        <v>-0.04812236390444544</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,758 +1834,893 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04567371450071552</v>
+        <v>0.04646022620843655</v>
       </c>
       <c r="C58">
-        <v>-0.003672661370631885</v>
+        <v>-0.001270198802049502</v>
       </c>
       <c r="D58">
-        <v>0.01536543676753184</v>
+        <v>-0.06824803477231133</v>
       </c>
       <c r="E58">
-        <v>0.01050230002634554</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.0250246564383695</v>
+      </c>
+      <c r="F58">
+        <v>0.0404063897666601</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1358047638404208</v>
+        <v>0.171914108051343</v>
       </c>
       <c r="C59">
-        <v>-0.2121804472540655</v>
+        <v>-0.01771725631817073</v>
       </c>
       <c r="D59">
-        <v>-0.1877016564131443</v>
+        <v>0.2227329130288178</v>
       </c>
       <c r="E59">
-        <v>-0.05845487520416986</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.04765803454938008</v>
+      </c>
+      <c r="F59">
+        <v>0.03106755234757384</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2806243986248702</v>
+        <v>0.2349444921262439</v>
       </c>
       <c r="C60">
-        <v>0.05160548901827633</v>
+        <v>0.004226881712314092</v>
       </c>
       <c r="D60">
-        <v>0.04175742821911769</v>
+        <v>-0.04337727863138805</v>
       </c>
       <c r="E60">
-        <v>0.07157128265399791</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.01094702049132024</v>
+      </c>
+      <c r="F60">
+        <v>0.02349303392394385</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1242114198886532</v>
+        <v>0.08329555275024887</v>
       </c>
       <c r="C61">
-        <v>0.0531059816215488</v>
+        <v>-0.01272549639262164</v>
       </c>
       <c r="D61">
-        <v>0.0466915646741218</v>
+        <v>-0.1161053423822198</v>
       </c>
       <c r="E61">
-        <v>-0.05236823901351521</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.04040802578228016</v>
+      </c>
+      <c r="F61">
+        <v>-0.01124032029604799</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1614564753810782</v>
+        <v>0.1700293260220908</v>
       </c>
       <c r="C62">
-        <v>0.01131611912013959</v>
+        <v>-0.01788253319265099</v>
       </c>
       <c r="D62">
-        <v>0.01497574828016382</v>
+        <v>-0.01017447890622084</v>
       </c>
       <c r="E62">
-        <v>-4.186418144916116e-05</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0.03713730304327844</v>
+      </c>
+      <c r="F62">
+        <v>-0.02994521210354215</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04787186571461324</v>
+        <v>0.04287912194708191</v>
       </c>
       <c r="C63">
-        <v>0.01765042771644728</v>
+        <v>-0.002566480969009111</v>
       </c>
       <c r="D63">
-        <v>0.008734686204708153</v>
+        <v>-0.05634417219528871</v>
       </c>
       <c r="E63">
-        <v>-0.02690605653126666</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.02089445685353591</v>
+      </c>
+      <c r="F63">
+        <v>-0.006636363249122835</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09790235655612468</v>
+        <v>0.1109086902765779</v>
       </c>
       <c r="C64">
-        <v>0.01592566595804927</v>
+        <v>-0.01114150296890875</v>
       </c>
       <c r="D64">
-        <v>0.02918957243654007</v>
+        <v>-0.04137905907895268</v>
       </c>
       <c r="E64">
-        <v>-0.007610694465378187</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02013162376309627</v>
+      </c>
+      <c r="F64">
+        <v>-0.0278193193421379</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1158775881976098</v>
+        <v>0.1467568486038822</v>
       </c>
       <c r="C65">
-        <v>0.003849864713540025</v>
+        <v>-0.03128720118185926</v>
       </c>
       <c r="D65">
-        <v>-0.01385312133012752</v>
+        <v>0.04196920944873213</v>
       </c>
       <c r="E65">
-        <v>0.007949201499435258</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.001519776718171861</v>
+      </c>
+      <c r="F65">
+        <v>-0.04382368282475578</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.186881114872034</v>
+        <v>0.1277642185927217</v>
       </c>
       <c r="C66">
-        <v>0.07685787271348382</v>
+        <v>-0.0144783419320047</v>
       </c>
       <c r="D66">
-        <v>0.1193860645198386</v>
+        <v>-0.1431415849298722</v>
       </c>
       <c r="E66">
-        <v>-0.07382742546934631</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.06806852336879053</v>
+      </c>
+      <c r="F66">
+        <v>-0.02851465731026922</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.07825741324642552</v>
+        <v>0.0637109845847087</v>
       </c>
       <c r="C67">
-        <v>0.03839898438286995</v>
+        <v>-0.002850448064270014</v>
       </c>
       <c r="D67">
-        <v>0.01185477941307783</v>
+        <v>-0.05672471600517334</v>
       </c>
       <c r="E67">
-        <v>-0.08229528067781398</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.01813006360295835</v>
+      </c>
+      <c r="F67">
+        <v>0.03999008059174068</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.06560093945520039</v>
+        <v>0.1171891538566731</v>
       </c>
       <c r="C68">
-        <v>-0.2034947478640528</v>
+        <v>-0.02753970617800797</v>
       </c>
       <c r="D68">
-        <v>-0.1883792515106166</v>
+        <v>0.2608719473497488</v>
       </c>
       <c r="E68">
-        <v>-0.03727810812007964</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.08543069546235547</v>
+      </c>
+      <c r="F68">
+        <v>-0.02003581892844421</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03352240485283154</v>
+        <v>0.03916382260507604</v>
       </c>
       <c r="C69">
-        <v>0.003081521499141694</v>
+        <v>-0.0008903171652892662</v>
       </c>
       <c r="D69">
-        <v>-0.01634783825411049</v>
+        <v>-0.008140352477027671</v>
       </c>
       <c r="E69">
-        <v>-0.02594637048293648</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.0236479117238571</v>
+      </c>
+      <c r="F69">
+        <v>0.005862726250850502</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.02649952778504513</v>
+        <v>0.06255040327709704</v>
       </c>
       <c r="C70">
-        <v>0.002165282072316563</v>
+        <v>0.02868907141714128</v>
       </c>
       <c r="D70">
-        <v>-0.0294586330524073</v>
+        <v>-0.02939558030188161</v>
       </c>
       <c r="E70">
-        <v>-0.03731200665209968</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>-0.04814309738333757</v>
+      </c>
+      <c r="F70">
+        <v>0.2338681198016393</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.0764135768032021</v>
+        <v>0.1362571786709407</v>
       </c>
       <c r="C71">
-        <v>-0.2145868096742925</v>
+        <v>-0.0320265385488852</v>
       </c>
       <c r="D71">
-        <v>-0.2037043941895202</v>
+        <v>0.2749140150914339</v>
       </c>
       <c r="E71">
-        <v>-0.04903171309622799</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.09528730075669438</v>
+      </c>
+      <c r="F71">
+        <v>-0.02410996231006744</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1334768728965949</v>
+        <v>0.1414748417185213</v>
       </c>
       <c r="C72">
-        <v>-0.03353880070097136</v>
+        <v>-0.02499372942246863</v>
       </c>
       <c r="D72">
-        <v>-0.001945639186314524</v>
+        <v>-0.001290095455422196</v>
       </c>
       <c r="E72">
-        <v>-0.02128146620579505</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.04276088311159285</v>
+      </c>
+      <c r="F72">
+        <v>-0.02973125086037413</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2203988415112353</v>
+        <v>0.2016048644033553</v>
       </c>
       <c r="C73">
-        <v>-0.02679640668770348</v>
+        <v>-0.01181927201894573</v>
       </c>
       <c r="D73">
-        <v>0.005897203092009562</v>
+        <v>-0.0146226558391968</v>
       </c>
       <c r="E73">
-        <v>-0.04152608277346508</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.06559041132868712</v>
+      </c>
+      <c r="F73">
+        <v>-0.02533524984392061</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1088322824320765</v>
+        <v>0.09449733919030731</v>
       </c>
       <c r="C74">
-        <v>-0.002273491858044657</v>
+        <v>-0.01220700252477274</v>
       </c>
       <c r="D74">
-        <v>0.03127472191658407</v>
+        <v>-0.01961230847818399</v>
       </c>
       <c r="E74">
-        <v>-0.01530384285380913</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.04860308544977975</v>
+      </c>
+      <c r="F74">
+        <v>-0.05100581280445012</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1285284644599588</v>
+        <v>0.1290050768527669</v>
       </c>
       <c r="C75">
-        <v>0.01441229504486204</v>
+        <v>-0.02660809552830927</v>
       </c>
       <c r="D75">
-        <v>0.04500113350193961</v>
+        <v>-0.03280410143703143</v>
       </c>
       <c r="E75">
-        <v>-0.006017928591171376</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.06077010892405137</v>
+      </c>
+      <c r="F75">
+        <v>-0.01490527642170845</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.01298671592123968</v>
+        <v>0.002891513621886181</v>
       </c>
       <c r="C76">
-        <v>-0.01068050443249966</v>
+        <v>-0.0007145335206831744</v>
       </c>
       <c r="D76">
-        <v>-0.009098409295600332</v>
+        <v>0.002073736472007263</v>
       </c>
       <c r="E76">
-        <v>-0.01167802826864672</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.0004501075926258312</v>
+      </c>
+      <c r="F76">
+        <v>-0.003765288704042323</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.0891253524687227</v>
+        <v>0.07947452304325245</v>
       </c>
       <c r="C77">
-        <v>0.0760066457976757</v>
+        <v>-0.008688780557282264</v>
       </c>
       <c r="D77">
-        <v>0.08198062881464889</v>
+        <v>-0.1187472084950158</v>
       </c>
       <c r="E77">
-        <v>0.01991569028906319</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.03976941086349763</v>
+      </c>
+      <c r="F77">
+        <v>-0.02999212734486284</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09599804066307287</v>
+        <v>0.103195483870081</v>
       </c>
       <c r="C78">
-        <v>-0.06049934033846381</v>
+        <v>-0.03980586505073695</v>
       </c>
       <c r="D78">
-        <v>0.1089894563255722</v>
+        <v>-0.1163832349788312</v>
       </c>
       <c r="E78">
-        <v>-0.1942190906223872</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.07989293574248819</v>
+      </c>
+      <c r="F78">
+        <v>-0.0584030240796498</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1399813596794729</v>
+        <v>0.1643217749085909</v>
       </c>
       <c r="C79">
-        <v>-0.000190427724419255</v>
+        <v>-0.02060218903453289</v>
       </c>
       <c r="D79">
-        <v>0.06082674710378469</v>
+        <v>-0.01905379894066387</v>
       </c>
       <c r="E79">
-        <v>0.01165062762339273</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.05012918171931022</v>
+      </c>
+      <c r="F79">
+        <v>-0.00680639937970121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08663519975631277</v>
+        <v>0.08130716050394479</v>
       </c>
       <c r="C80">
-        <v>0.06594314688240406</v>
+        <v>0.0008032033748479765</v>
       </c>
       <c r="D80">
-        <v>0.03688159225973323</v>
+        <v>-0.05812363011994476</v>
       </c>
       <c r="E80">
-        <v>-0.05605026954342342</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03587803099876265</v>
+      </c>
+      <c r="F80">
+        <v>0.02636650225147716</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.145664131688729</v>
+        <v>0.1233826347366645</v>
       </c>
       <c r="C81">
-        <v>0.01707642349827322</v>
+        <v>-0.03042441705087182</v>
       </c>
       <c r="D81">
-        <v>0.05690178572327978</v>
+        <v>-0.01691958474473644</v>
       </c>
       <c r="E81">
-        <v>-0.02384572635589937</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.06046980369495969</v>
+      </c>
+      <c r="F81">
+        <v>-0.01085300226627849</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1698039413070963</v>
+        <v>0.1640617946590224</v>
       </c>
       <c r="C82">
-        <v>0.03602962461500677</v>
+        <v>-0.02263169252619334</v>
       </c>
       <c r="D82">
-        <v>0.02835857750671207</v>
+        <v>-0.008818669848074043</v>
       </c>
       <c r="E82">
-        <v>-0.01925394081147757</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.03379483313576406</v>
+      </c>
+      <c r="F82">
+        <v>-0.07225643753776628</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.07461195261497489</v>
+        <v>0.06193384331030014</v>
       </c>
       <c r="C83">
-        <v>0.01327448062076998</v>
+        <v>-0.00314563556140666</v>
       </c>
       <c r="D83">
-        <v>0.001975126245756868</v>
+        <v>-0.04950469937801341</v>
       </c>
       <c r="E83">
-        <v>0.07071221975900704</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.005646101846937943</v>
+      </c>
+      <c r="F83">
+        <v>0.03990310525977971</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.07612267727181998</v>
+        <v>0.05866196748957769</v>
       </c>
       <c r="C84">
-        <v>0.01788672924251148</v>
+        <v>-0.01074218372177347</v>
       </c>
       <c r="D84">
-        <v>0.006932951208588929</v>
+        <v>-0.06634263415922707</v>
       </c>
       <c r="E84">
-        <v>0.004812387086744804</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.005362463726268768</v>
+      </c>
+      <c r="F84">
+        <v>-0.007384776936275166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1240729465596562</v>
+        <v>0.138764054978042</v>
       </c>
       <c r="C85">
-        <v>-0.001932229594521532</v>
+        <v>-0.0263787619982855</v>
       </c>
       <c r="D85">
-        <v>0.01823369121809175</v>
+        <v>-0.01258309206234103</v>
       </c>
       <c r="E85">
-        <v>-0.00213529463929241</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.04119092673282834</v>
+      </c>
+      <c r="F85">
+        <v>-0.04620063334714343</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1234458982585093</v>
+        <v>0.09582987496859137</v>
       </c>
       <c r="C86">
-        <v>-0.2399260377099409</v>
+        <v>0.00547775910282549</v>
       </c>
       <c r="D86">
-        <v>0.2007991213826901</v>
+        <v>-0.03470340611846143</v>
       </c>
       <c r="E86">
-        <v>0.8910946840266692</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.1648086929191363</v>
+      </c>
+      <c r="F86">
+        <v>0.8985718043981439</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1175381956535064</v>
+        <v>0.09532463373152596</v>
       </c>
       <c r="C87">
-        <v>0.1025973163157572</v>
+        <v>-0.02201124051121684</v>
       </c>
       <c r="D87">
-        <v>-0.002491306023641176</v>
+        <v>-0.09296223305331031</v>
       </c>
       <c r="E87">
-        <v>0.006415251872807798</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.05387506875425638</v>
+      </c>
+      <c r="F87">
+        <v>-0.06830208431824869</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.04758618183509607</v>
+        <v>0.06103854850292015</v>
       </c>
       <c r="C88">
-        <v>0.005408176953377616</v>
+        <v>-0.002381085098604059</v>
       </c>
       <c r="D88">
-        <v>0.03012350550867814</v>
+        <v>-0.05097205196644799</v>
       </c>
       <c r="E88">
-        <v>-0.0397581119503653</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.0261333306433094</v>
+      </c>
+      <c r="F88">
+        <v>-0.009437706772033148</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1177259045820781</v>
+        <v>0.1351323104108635</v>
       </c>
       <c r="C89">
-        <v>-0.2788260395042886</v>
+        <v>-0.009942777155009887</v>
       </c>
       <c r="D89">
-        <v>-0.2564452918321161</v>
+        <v>0.2533739686196767</v>
       </c>
       <c r="E89">
-        <v>-0.03065792601159084</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.08939504994957231</v>
+      </c>
+      <c r="F89">
+        <v>-0.007424486686152983</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.08714527927613301</v>
+        <v>0.1480886314083083</v>
       </c>
       <c r="C90">
-        <v>-0.2217880027067572</v>
+        <v>-0.02767683004069598</v>
       </c>
       <c r="D90">
-        <v>-0.2050726092156481</v>
+        <v>0.2663291510796214</v>
       </c>
       <c r="E90">
-        <v>-0.03468697813740049</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.1095322679273795</v>
+      </c>
+      <c r="F90">
+        <v>-0.009304513915998324</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.09028555893830933</v>
+        <v>0.1198966816637142</v>
       </c>
       <c r="C91">
-        <v>0.003074806625020137</v>
+        <v>-0.01709421990817405</v>
       </c>
       <c r="D91">
-        <v>0.02878905781421752</v>
+        <v>0.01029427006912513</v>
       </c>
       <c r="E91">
-        <v>0.008021357915122365</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05764548605509374</v>
+      </c>
+      <c r="F91">
+        <v>0.01192095128317762</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1007712312418389</v>
+        <v>0.1494964940058885</v>
       </c>
       <c r="C92">
-        <v>-0.2366196619855589</v>
+        <v>-0.01918689059477531</v>
       </c>
       <c r="D92">
-        <v>-0.2423981224403543</v>
+        <v>0.2900992550630713</v>
       </c>
       <c r="E92">
-        <v>-0.01598568781228414</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.1029934510466868</v>
+      </c>
+      <c r="F92">
+        <v>-0.003155957965929994</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.08552134434270435</v>
+        <v>0.1511806413888878</v>
       </c>
       <c r="C93">
-        <v>-0.2455492619740669</v>
+        <v>-0.02380961638174633</v>
       </c>
       <c r="D93">
-        <v>-0.2247590926664053</v>
+        <v>0.2658159852349762</v>
       </c>
       <c r="E93">
-        <v>-0.02764046914555032</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.07644154710182022</v>
+      </c>
+      <c r="F93">
+        <v>-0.01037016281317389</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1522476371102886</v>
+        <v>0.1321650274279265</v>
       </c>
       <c r="C94">
-        <v>0.009767726523689756</v>
+        <v>-0.02374101058430671</v>
       </c>
       <c r="D94">
-        <v>0.04076055896712865</v>
+        <v>-0.04406180394060596</v>
       </c>
       <c r="E94">
-        <v>-0.06118341201547262</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.06103924104036789</v>
+      </c>
+      <c r="F94">
+        <v>-0.03394316898118237</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1218470893172331</v>
+        <v>0.1261822991350652</v>
       </c>
       <c r="C95">
-        <v>0.02001928113285839</v>
+        <v>-0.004731171907630969</v>
       </c>
       <c r="D95">
-        <v>0.04572631564491848</v>
+        <v>-0.09255007264171912</v>
       </c>
       <c r="E95">
-        <v>-0.04356641681665958</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.04626166754659944</v>
+      </c>
+      <c r="F95">
+        <v>0.009562226164957555</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.01458123449908843</v>
+        <v>0.09946023762596071</v>
       </c>
       <c r="C96">
-        <v>-0.0001945939589622537</v>
+        <v>0.9887357577563205</v>
       </c>
       <c r="D96">
-        <v>0.001069424696660508</v>
+        <v>0.03564122440672816</v>
       </c>
       <c r="E96">
-        <v>-0.001158726296473546</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>0.05792442516172178</v>
+      </c>
+      <c r="F96">
+        <v>-0.04211280483526565</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1762512538818715</v>
+        <v>0.1895225034118329</v>
       </c>
       <c r="C97">
-        <v>-0.04341735982875235</v>
+        <v>0.009379821923060036</v>
       </c>
       <c r="D97">
-        <v>0.0469215746170332</v>
+        <v>0.01786187522430078</v>
       </c>
       <c r="E97">
-        <v>-0.03938544293741725</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.008014068144347882</v>
+      </c>
+      <c r="F97">
+        <v>0.102661991265079</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2430291525885925</v>
+        <v>0.205668366062824</v>
       </c>
       <c r="C98">
-        <v>0.007370253396112996</v>
+        <v>-0.007285648583077443</v>
       </c>
       <c r="D98">
-        <v>-0.06767653984147227</v>
+        <v>-0.008441259925938629</v>
       </c>
       <c r="E98">
-        <v>0.09489974892690824</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.09546199278517516</v>
+      </c>
+      <c r="F98">
+        <v>0.09893315830370736</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.04799620544181171</v>
+        <v>0.05597463388478863</v>
       </c>
       <c r="C99">
-        <v>-0.01907114238643456</v>
+        <v>0.004284868167442439</v>
       </c>
       <c r="D99">
-        <v>0.005407535254641716</v>
+        <v>-0.03702698064697411</v>
       </c>
       <c r="E99">
-        <v>-0.04368151695338927</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>0.02429390074265581</v>
+      </c>
+      <c r="F99">
+        <v>-0.002027931365087433</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1223100486334769</v>
+        <v>0.1243907405762105</v>
       </c>
       <c r="C100">
-        <v>0.6323183124724543</v>
+        <v>0.05198549096974754</v>
       </c>
       <c r="D100">
-        <v>-0.6681719654526269</v>
+        <v>-0.3450781631673718</v>
       </c>
       <c r="E100">
-        <v>0.2492675108365494</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>-0.8937423430057163</v>
+      </c>
+      <c r="F100">
+        <v>0.08865222654365201</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02862529284713271</v>
+        <v>0.02684601993390902</v>
       </c>
       <c r="C101">
-        <v>0.009524866852002854</v>
+        <v>-0.008374036743749454</v>
       </c>
       <c r="D101">
-        <v>-0.000961032809719683</v>
+        <v>-0.03104173826488053</v>
       </c>
       <c r="E101">
-        <v>-0.007348033826672829</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.01081871111850789</v>
+      </c>
+      <c r="F101">
+        <v>0.0140719725819236</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +2734,13 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +2754,13 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +2772,9 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
